--- a/docs/CasosPrueba - Estadística/CP - Moda.xlsx
+++ b/docs/CasosPrueba - Estadística/CP - Moda.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25726"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25831"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/2cc5a38752f2b5bf/Ingeniería/Cuarto/Primer Cuatrimestre/Validación y Pruebas/Prácticas/Práctica 2/TDD-ACB-JGA/docs/CasosPrueba - Estadística/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="57" documentId="13_ncr:1_{D3CE32E0-4ADA-441D-8539-F74141AE4C58}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{73397DF0-1EDD-4855-9743-CA6D077E45BB}"/>
+  <xr:revisionPtr revIDLastSave="63" documentId="13_ncr:1_{D3CE32E0-4ADA-441D-8539-F74141AE4C58}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{2CE9E897-6405-4262-A22F-B88ED60DBB7B}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="5" xr2:uid="{12BA3133-949C-4B91-9275-35525239132A}"/>
   </bookViews>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="228" uniqueCount="63">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="234" uniqueCount="64">
   <si>
     <t>Nombre Proyecto:</t>
   </si>
@@ -227,6 +227,9 @@
   </si>
   <si>
     <t>El método devuelve un listado de modas.</t>
+  </si>
+  <si>
+    <t>RF-014</t>
   </si>
 </sst>
 </file>
@@ -328,11 +331,11 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="14" fontId="0" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -341,10 +344,7 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
@@ -362,7 +362,10 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -565,6 +568,10 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -867,7 +874,7 @@
   <dimension ref="B2:F22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C18" sqref="C18:F18"/>
+      <selection activeCell="F4" sqref="F4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -880,10 +887,10 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B2" s="10" t="s">
+      <c r="B2" s="9" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="10"/>
+      <c r="C2" s="9"/>
       <c r="D2" s="4" t="s">
         <v>28</v>
       </c>
@@ -895,10 +902,10 @@
       </c>
     </row>
     <row r="3" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B3" s="10" t="s">
+      <c r="B3" s="9" t="s">
         <v>3</v>
       </c>
-      <c r="C3" s="10"/>
+      <c r="C3" s="9"/>
       <c r="D3" s="4" t="s">
         <v>27</v>
       </c>
@@ -908,69 +915,71 @@
       <c r="F3" s="5"/>
     </row>
     <row r="4" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B4" s="10" t="s">
+      <c r="B4" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="C4" s="10"/>
+      <c r="C4" s="9"/>
       <c r="D4" s="4" t="s">
         <v>26</v>
       </c>
       <c r="E4" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="F4" s="5"/>
+      <c r="F4" s="5" t="s">
+        <v>63</v>
+      </c>
     </row>
     <row r="5" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B5" s="9" t="s">
+      <c r="B5" s="10" t="s">
         <v>4</v>
       </c>
-      <c r="C5" s="9"/>
-      <c r="D5" s="9"/>
-      <c r="E5" s="9"/>
-      <c r="F5" s="9"/>
+      <c r="C5" s="10"/>
+      <c r="D5" s="10"/>
+      <c r="E5" s="10"/>
+      <c r="F5" s="10"/>
     </row>
     <row r="6" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B6" s="20" t="s">
+      <c r="B6" s="13" t="s">
         <v>25</v>
       </c>
-      <c r="C6" s="20"/>
-      <c r="D6" s="20"/>
-      <c r="E6" s="20"/>
-      <c r="F6" s="20"/>
+      <c r="C6" s="13"/>
+      <c r="D6" s="13"/>
+      <c r="E6" s="13"/>
+      <c r="F6" s="13"/>
     </row>
     <row r="7" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B7" s="20"/>
-      <c r="C7" s="20"/>
-      <c r="D7" s="20"/>
-      <c r="E7" s="20"/>
-      <c r="F7" s="20"/>
+      <c r="B7" s="13"/>
+      <c r="C7" s="13"/>
+      <c r="D7" s="13"/>
+      <c r="E7" s="13"/>
+      <c r="F7" s="13"/>
     </row>
     <row r="8" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B8" s="20"/>
-      <c r="C8" s="20"/>
-      <c r="D8" s="20"/>
-      <c r="E8" s="20"/>
-      <c r="F8" s="20"/>
+      <c r="B8" s="13"/>
+      <c r="C8" s="13"/>
+      <c r="D8" s="13"/>
+      <c r="E8" s="13"/>
+      <c r="F8" s="13"/>
     </row>
     <row r="9" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B9" s="9" t="s">
+      <c r="B9" s="10" t="s">
         <v>5</v>
       </c>
-      <c r="C9" s="9"/>
-      <c r="D9" s="9"/>
-      <c r="E9" s="9"/>
-      <c r="F9" s="9"/>
+      <c r="C9" s="10"/>
+      <c r="D9" s="10"/>
+      <c r="E9" s="10"/>
+      <c r="F9" s="10"/>
     </row>
     <row r="10" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B10" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="C10" s="10" t="s">
+      <c r="C10" s="9" t="s">
         <v>7</v>
       </c>
-      <c r="D10" s="10"/>
-      <c r="E10" s="10"/>
-      <c r="F10" s="10"/>
+      <c r="D10" s="9"/>
+      <c r="E10" s="9"/>
+      <c r="F10" s="9"/>
     </row>
     <row r="11" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B11" s="6">
@@ -984,22 +993,22 @@
       <c r="F11" s="12"/>
     </row>
     <row r="12" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B12" s="9" t="s">
+      <c r="B12" s="10" t="s">
         <v>10</v>
       </c>
-      <c r="C12" s="9"/>
-      <c r="D12" s="9"/>
-      <c r="E12" s="9"/>
-      <c r="F12" s="9"/>
+      <c r="C12" s="10"/>
+      <c r="D12" s="10"/>
+      <c r="E12" s="10"/>
+      <c r="F12" s="10"/>
     </row>
     <row r="13" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B13" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="C13" s="18" t="s">
+      <c r="C13" s="17" t="s">
         <v>11</v>
       </c>
-      <c r="D13" s="18"/>
+      <c r="D13" s="17"/>
       <c r="E13" s="2" t="s">
         <v>8</v>
       </c>
@@ -1034,68 +1043,68 @@
       </c>
     </row>
     <row r="16" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B16" s="19" t="s">
+      <c r="B16" s="18" t="s">
         <v>14</v>
       </c>
-      <c r="C16" s="19"/>
-      <c r="D16" s="19"/>
-      <c r="E16" s="19"/>
-      <c r="F16" s="19"/>
+      <c r="C16" s="18"/>
+      <c r="D16" s="18"/>
+      <c r="E16" s="18"/>
+      <c r="F16" s="18"/>
     </row>
     <row r="17" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B17" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="C17" s="10" t="s">
+      <c r="C17" s="9" t="s">
         <v>7</v>
       </c>
-      <c r="D17" s="10"/>
-      <c r="E17" s="10"/>
-      <c r="F17" s="10"/>
+      <c r="D17" s="9"/>
+      <c r="E17" s="9"/>
+      <c r="F17" s="9"/>
     </row>
     <row r="18" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B18" s="6">
         <v>1</v>
       </c>
-      <c r="C18" s="13" t="s">
+      <c r="C18" s="19" t="s">
         <v>42</v>
       </c>
-      <c r="D18" s="14"/>
-      <c r="E18" s="14"/>
-      <c r="F18" s="14"/>
+      <c r="D18" s="20"/>
+      <c r="E18" s="20"/>
+      <c r="F18" s="20"/>
     </row>
     <row r="19" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B19" s="9" t="s">
+      <c r="B19" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="C19" s="9"/>
-      <c r="D19" s="9"/>
-      <c r="E19" s="9"/>
-      <c r="F19" s="9"/>
+      <c r="C19" s="10"/>
+      <c r="D19" s="10"/>
+      <c r="E19" s="10"/>
+      <c r="F19" s="10"/>
     </row>
     <row r="20" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B20" s="17" t="s">
+      <c r="B20" s="16" t="s">
         <v>13</v>
       </c>
-      <c r="C20" s="17"/>
-      <c r="D20" s="15" t="s">
+      <c r="C20" s="16"/>
+      <c r="D20" s="14" t="s">
         <v>20</v>
       </c>
-      <c r="E20" s="15"/>
-      <c r="F20" s="15"/>
+      <c r="E20" s="14"/>
+      <c r="F20" s="14"/>
     </row>
     <row r="21" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B21" s="17"/>
-      <c r="C21" s="17"/>
-      <c r="D21" s="15"/>
-      <c r="E21" s="15"/>
-      <c r="F21" s="15"/>
+      <c r="B21" s="16"/>
+      <c r="C21" s="16"/>
+      <c r="D21" s="14"/>
+      <c r="E21" s="14"/>
+      <c r="F21" s="14"/>
     </row>
     <row r="22" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B22" s="16" t="s">
+      <c r="B22" s="15" t="s">
         <v>17</v>
       </c>
-      <c r="C22" s="16"/>
+      <c r="C22" s="15"/>
       <c r="D22" s="4" t="s">
         <v>19</v>
       </c>
@@ -1106,15 +1115,6 @@
     </row>
   </sheetData>
   <mergeCells count="19">
-    <mergeCell ref="B2:C2"/>
-    <mergeCell ref="B3:C3"/>
-    <mergeCell ref="B12:F12"/>
-    <mergeCell ref="C10:F10"/>
-    <mergeCell ref="C11:F11"/>
-    <mergeCell ref="B4:C4"/>
-    <mergeCell ref="B6:F8"/>
-    <mergeCell ref="B5:F5"/>
-    <mergeCell ref="B9:F9"/>
     <mergeCell ref="D20:F21"/>
     <mergeCell ref="B22:C22"/>
     <mergeCell ref="B20:C21"/>
@@ -1125,6 +1125,15 @@
     <mergeCell ref="B16:F16"/>
     <mergeCell ref="C17:F17"/>
     <mergeCell ref="C18:F18"/>
+    <mergeCell ref="B2:C2"/>
+    <mergeCell ref="B3:C3"/>
+    <mergeCell ref="B12:F12"/>
+    <mergeCell ref="C10:F10"/>
+    <mergeCell ref="C11:F11"/>
+    <mergeCell ref="B4:C4"/>
+    <mergeCell ref="B6:F8"/>
+    <mergeCell ref="B5:F5"/>
+    <mergeCell ref="B9:F9"/>
   </mergeCells>
   <conditionalFormatting sqref="D22">
     <cfRule type="cellIs" dxfId="17" priority="1" operator="equal">
@@ -1146,7 +1155,7 @@
   <dimension ref="B2:F22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C18" sqref="C18:F18"/>
+      <selection activeCell="F4" sqref="F4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1159,10 +1168,10 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B2" s="10" t="s">
+      <c r="B2" s="9" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="10"/>
+      <c r="C2" s="9"/>
       <c r="D2" s="4" t="s">
         <v>28</v>
       </c>
@@ -1174,10 +1183,10 @@
       </c>
     </row>
     <row r="3" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B3" s="10" t="s">
+      <c r="B3" s="9" t="s">
         <v>3</v>
       </c>
-      <c r="C3" s="10"/>
+      <c r="C3" s="9"/>
       <c r="D3" s="4" t="s">
         <v>27</v>
       </c>
@@ -1187,69 +1196,71 @@
       <c r="F3" s="5"/>
     </row>
     <row r="4" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B4" s="10" t="s">
+      <c r="B4" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="C4" s="10"/>
+      <c r="C4" s="9"/>
       <c r="D4" s="4" t="s">
         <v>26</v>
       </c>
       <c r="E4" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="F4" s="5"/>
+      <c r="F4" s="5" t="s">
+        <v>63</v>
+      </c>
     </row>
     <row r="5" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B5" s="9" t="s">
+      <c r="B5" s="10" t="s">
         <v>4</v>
       </c>
-      <c r="C5" s="9"/>
-      <c r="D5" s="9"/>
-      <c r="E5" s="9"/>
-      <c r="F5" s="9"/>
+      <c r="C5" s="10"/>
+      <c r="D5" s="10"/>
+      <c r="E5" s="10"/>
+      <c r="F5" s="10"/>
     </row>
     <row r="6" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B6" s="20" t="s">
+      <c r="B6" s="13" t="s">
         <v>30</v>
       </c>
-      <c r="C6" s="20"/>
-      <c r="D6" s="20"/>
-      <c r="E6" s="20"/>
-      <c r="F6" s="20"/>
+      <c r="C6" s="13"/>
+      <c r="D6" s="13"/>
+      <c r="E6" s="13"/>
+      <c r="F6" s="13"/>
     </row>
     <row r="7" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B7" s="20"/>
-      <c r="C7" s="20"/>
-      <c r="D7" s="20"/>
-      <c r="E7" s="20"/>
-      <c r="F7" s="20"/>
+      <c r="B7" s="13"/>
+      <c r="C7" s="13"/>
+      <c r="D7" s="13"/>
+      <c r="E7" s="13"/>
+      <c r="F7" s="13"/>
     </row>
     <row r="8" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B8" s="20"/>
-      <c r="C8" s="20"/>
-      <c r="D8" s="20"/>
-      <c r="E8" s="20"/>
-      <c r="F8" s="20"/>
+      <c r="B8" s="13"/>
+      <c r="C8" s="13"/>
+      <c r="D8" s="13"/>
+      <c r="E8" s="13"/>
+      <c r="F8" s="13"/>
     </row>
     <row r="9" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B9" s="9" t="s">
+      <c r="B9" s="10" t="s">
         <v>5</v>
       </c>
-      <c r="C9" s="9"/>
-      <c r="D9" s="9"/>
-      <c r="E9" s="9"/>
-      <c r="F9" s="9"/>
+      <c r="C9" s="10"/>
+      <c r="D9" s="10"/>
+      <c r="E9" s="10"/>
+      <c r="F9" s="10"/>
     </row>
     <row r="10" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B10" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="C10" s="10" t="s">
+      <c r="C10" s="9" t="s">
         <v>7</v>
       </c>
-      <c r="D10" s="10"/>
-      <c r="E10" s="10"/>
-      <c r="F10" s="10"/>
+      <c r="D10" s="9"/>
+      <c r="E10" s="9"/>
+      <c r="F10" s="9"/>
     </row>
     <row r="11" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B11" s="6">
@@ -1263,22 +1274,22 @@
       <c r="F11" s="12"/>
     </row>
     <row r="12" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B12" s="9" t="s">
+      <c r="B12" s="10" t="s">
         <v>10</v>
       </c>
-      <c r="C12" s="9"/>
-      <c r="D12" s="9"/>
-      <c r="E12" s="9"/>
-      <c r="F12" s="9"/>
+      <c r="C12" s="10"/>
+      <c r="D12" s="10"/>
+      <c r="E12" s="10"/>
+      <c r="F12" s="10"/>
     </row>
     <row r="13" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B13" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="C13" s="18" t="s">
+      <c r="C13" s="17" t="s">
         <v>11</v>
       </c>
-      <c r="D13" s="18"/>
+      <c r="D13" s="17"/>
       <c r="E13" s="2" t="s">
         <v>8</v>
       </c>
@@ -1313,68 +1324,68 @@
       </c>
     </row>
     <row r="16" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B16" s="19" t="s">
+      <c r="B16" s="18" t="s">
         <v>14</v>
       </c>
-      <c r="C16" s="19"/>
-      <c r="D16" s="19"/>
-      <c r="E16" s="19"/>
-      <c r="F16" s="19"/>
+      <c r="C16" s="18"/>
+      <c r="D16" s="18"/>
+      <c r="E16" s="18"/>
+      <c r="F16" s="18"/>
     </row>
     <row r="17" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B17" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="C17" s="10" t="s">
+      <c r="C17" s="9" t="s">
         <v>7</v>
       </c>
-      <c r="D17" s="10"/>
-      <c r="E17" s="10"/>
-      <c r="F17" s="10"/>
+      <c r="D17" s="9"/>
+      <c r="E17" s="9"/>
+      <c r="F17" s="9"/>
     </row>
     <row r="18" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B18" s="6">
         <v>1</v>
       </c>
-      <c r="C18" s="13" t="s">
+      <c r="C18" s="19" t="s">
         <v>42</v>
       </c>
-      <c r="D18" s="14"/>
-      <c r="E18" s="14"/>
-      <c r="F18" s="14"/>
+      <c r="D18" s="20"/>
+      <c r="E18" s="20"/>
+      <c r="F18" s="20"/>
     </row>
     <row r="19" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B19" s="9" t="s">
+      <c r="B19" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="C19" s="9"/>
-      <c r="D19" s="9"/>
-      <c r="E19" s="9"/>
-      <c r="F19" s="9"/>
+      <c r="C19" s="10"/>
+      <c r="D19" s="10"/>
+      <c r="E19" s="10"/>
+      <c r="F19" s="10"/>
     </row>
     <row r="20" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B20" s="17" t="s">
+      <c r="B20" s="16" t="s">
         <v>13</v>
       </c>
-      <c r="C20" s="17"/>
-      <c r="D20" s="15" t="s">
+      <c r="C20" s="16"/>
+      <c r="D20" s="14" t="s">
         <v>20</v>
       </c>
-      <c r="E20" s="15"/>
-      <c r="F20" s="15"/>
+      <c r="E20" s="14"/>
+      <c r="F20" s="14"/>
     </row>
     <row r="21" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B21" s="17"/>
-      <c r="C21" s="17"/>
-      <c r="D21" s="15"/>
-      <c r="E21" s="15"/>
-      <c r="F21" s="15"/>
+      <c r="B21" s="16"/>
+      <c r="C21" s="16"/>
+      <c r="D21" s="14"/>
+      <c r="E21" s="14"/>
+      <c r="F21" s="14"/>
     </row>
     <row r="22" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B22" s="16" t="s">
+      <c r="B22" s="15" t="s">
         <v>17</v>
       </c>
-      <c r="C22" s="16"/>
+      <c r="C22" s="15"/>
       <c r="D22" s="4" t="s">
         <v>19</v>
       </c>
@@ -1385,15 +1396,6 @@
     </row>
   </sheetData>
   <mergeCells count="19">
-    <mergeCell ref="B9:F9"/>
-    <mergeCell ref="C10:F10"/>
-    <mergeCell ref="C11:F11"/>
-    <mergeCell ref="B12:F12"/>
-    <mergeCell ref="B2:C2"/>
-    <mergeCell ref="B3:C3"/>
-    <mergeCell ref="B4:C4"/>
-    <mergeCell ref="B5:F5"/>
-    <mergeCell ref="B6:F8"/>
     <mergeCell ref="C13:D13"/>
     <mergeCell ref="C14:D14"/>
     <mergeCell ref="B22:C22"/>
@@ -1404,6 +1406,15 @@
     <mergeCell ref="B20:C21"/>
     <mergeCell ref="D20:F21"/>
     <mergeCell ref="C15:D15"/>
+    <mergeCell ref="B9:F9"/>
+    <mergeCell ref="C10:F10"/>
+    <mergeCell ref="C11:F11"/>
+    <mergeCell ref="B12:F12"/>
+    <mergeCell ref="B2:C2"/>
+    <mergeCell ref="B3:C3"/>
+    <mergeCell ref="B4:C4"/>
+    <mergeCell ref="B5:F5"/>
+    <mergeCell ref="B6:F8"/>
   </mergeCells>
   <conditionalFormatting sqref="D22">
     <cfRule type="cellIs" dxfId="14" priority="1" operator="equal">
@@ -1425,7 +1436,7 @@
   <dimension ref="B2:F22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B12" sqref="B12:F12"/>
+      <selection activeCell="F4" sqref="F4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1438,10 +1449,10 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B2" s="10" t="s">
+      <c r="B2" s="9" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="10"/>
+      <c r="C2" s="9"/>
       <c r="D2" s="4" t="s">
         <v>28</v>
       </c>
@@ -1453,10 +1464,10 @@
       </c>
     </row>
     <row r="3" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B3" s="10" t="s">
+      <c r="B3" s="9" t="s">
         <v>3</v>
       </c>
-      <c r="C3" s="10"/>
+      <c r="C3" s="9"/>
       <c r="D3" s="4" t="s">
         <v>27</v>
       </c>
@@ -1466,69 +1477,71 @@
       <c r="F3" s="5"/>
     </row>
     <row r="4" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B4" s="10" t="s">
+      <c r="B4" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="C4" s="10"/>
+      <c r="C4" s="9"/>
       <c r="D4" s="4" t="s">
         <v>26</v>
       </c>
       <c r="E4" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="F4" s="5"/>
+      <c r="F4" s="5" t="s">
+        <v>63</v>
+      </c>
     </row>
     <row r="5" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B5" s="9" t="s">
+      <c r="B5" s="10" t="s">
         <v>4</v>
       </c>
-      <c r="C5" s="9"/>
-      <c r="D5" s="9"/>
-      <c r="E5" s="9"/>
-      <c r="F5" s="9"/>
+      <c r="C5" s="10"/>
+      <c r="D5" s="10"/>
+      <c r="E5" s="10"/>
+      <c r="F5" s="10"/>
     </row>
     <row r="6" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B6" s="20" t="s">
+      <c r="B6" s="13" t="s">
         <v>36</v>
       </c>
-      <c r="C6" s="20"/>
-      <c r="D6" s="20"/>
-      <c r="E6" s="20"/>
-      <c r="F6" s="20"/>
+      <c r="C6" s="13"/>
+      <c r="D6" s="13"/>
+      <c r="E6" s="13"/>
+      <c r="F6" s="13"/>
     </row>
     <row r="7" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B7" s="20"/>
-      <c r="C7" s="20"/>
-      <c r="D7" s="20"/>
-      <c r="E7" s="20"/>
-      <c r="F7" s="20"/>
+      <c r="B7" s="13"/>
+      <c r="C7" s="13"/>
+      <c r="D7" s="13"/>
+      <c r="E7" s="13"/>
+      <c r="F7" s="13"/>
     </row>
     <row r="8" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B8" s="20"/>
-      <c r="C8" s="20"/>
-      <c r="D8" s="20"/>
-      <c r="E8" s="20"/>
-      <c r="F8" s="20"/>
+      <c r="B8" s="13"/>
+      <c r="C8" s="13"/>
+      <c r="D8" s="13"/>
+      <c r="E8" s="13"/>
+      <c r="F8" s="13"/>
     </row>
     <row r="9" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B9" s="9" t="s">
+      <c r="B9" s="10" t="s">
         <v>5</v>
       </c>
-      <c r="C9" s="9"/>
-      <c r="D9" s="9"/>
-      <c r="E9" s="9"/>
-      <c r="F9" s="9"/>
+      <c r="C9" s="10"/>
+      <c r="D9" s="10"/>
+      <c r="E9" s="10"/>
+      <c r="F9" s="10"/>
     </row>
     <row r="10" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B10" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="C10" s="10" t="s">
+      <c r="C10" s="9" t="s">
         <v>7</v>
       </c>
-      <c r="D10" s="10"/>
-      <c r="E10" s="10"/>
-      <c r="F10" s="10"/>
+      <c r="D10" s="9"/>
+      <c r="E10" s="9"/>
+      <c r="F10" s="9"/>
     </row>
     <row r="11" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B11" s="6">
@@ -1542,22 +1555,22 @@
       <c r="F11" s="12"/>
     </row>
     <row r="12" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B12" s="9" t="s">
+      <c r="B12" s="10" t="s">
         <v>10</v>
       </c>
-      <c r="C12" s="9"/>
-      <c r="D12" s="9"/>
-      <c r="E12" s="9"/>
-      <c r="F12" s="9"/>
+      <c r="C12" s="10"/>
+      <c r="D12" s="10"/>
+      <c r="E12" s="10"/>
+      <c r="F12" s="10"/>
     </row>
     <row r="13" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B13" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="C13" s="18" t="s">
+      <c r="C13" s="17" t="s">
         <v>11</v>
       </c>
-      <c r="D13" s="18"/>
+      <c r="D13" s="17"/>
       <c r="E13" s="2" t="s">
         <v>8</v>
       </c>
@@ -1592,68 +1605,68 @@
       </c>
     </row>
     <row r="16" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B16" s="19" t="s">
+      <c r="B16" s="18" t="s">
         <v>14</v>
       </c>
-      <c r="C16" s="19"/>
-      <c r="D16" s="19"/>
-      <c r="E16" s="19"/>
-      <c r="F16" s="19"/>
+      <c r="C16" s="18"/>
+      <c r="D16" s="18"/>
+      <c r="E16" s="18"/>
+      <c r="F16" s="18"/>
     </row>
     <row r="17" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B17" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="C17" s="10" t="s">
+      <c r="C17" s="9" t="s">
         <v>7</v>
       </c>
-      <c r="D17" s="10"/>
-      <c r="E17" s="10"/>
-      <c r="F17" s="10"/>
+      <c r="D17" s="9"/>
+      <c r="E17" s="9"/>
+      <c r="F17" s="9"/>
     </row>
     <row r="18" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B18" s="6">
         <v>1</v>
       </c>
-      <c r="C18" s="13" t="s">
+      <c r="C18" s="19" t="s">
         <v>32</v>
       </c>
-      <c r="D18" s="14"/>
-      <c r="E18" s="14"/>
-      <c r="F18" s="14"/>
+      <c r="D18" s="20"/>
+      <c r="E18" s="20"/>
+      <c r="F18" s="20"/>
     </row>
     <row r="19" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B19" s="9" t="s">
+      <c r="B19" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="C19" s="9"/>
-      <c r="D19" s="9"/>
-      <c r="E19" s="9"/>
-      <c r="F19" s="9"/>
+      <c r="C19" s="10"/>
+      <c r="D19" s="10"/>
+      <c r="E19" s="10"/>
+      <c r="F19" s="10"/>
     </row>
     <row r="20" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B20" s="17" t="s">
+      <c r="B20" s="16" t="s">
         <v>13</v>
       </c>
-      <c r="C20" s="17"/>
-      <c r="D20" s="15" t="s">
+      <c r="C20" s="16"/>
+      <c r="D20" s="14" t="s">
         <v>31</v>
       </c>
-      <c r="E20" s="15"/>
-      <c r="F20" s="15"/>
+      <c r="E20" s="14"/>
+      <c r="F20" s="14"/>
     </row>
     <row r="21" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B21" s="17"/>
-      <c r="C21" s="17"/>
-      <c r="D21" s="15"/>
-      <c r="E21" s="15"/>
-      <c r="F21" s="15"/>
+      <c r="B21" s="16"/>
+      <c r="C21" s="16"/>
+      <c r="D21" s="14"/>
+      <c r="E21" s="14"/>
+      <c r="F21" s="14"/>
     </row>
     <row r="22" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B22" s="16" t="s">
+      <c r="B22" s="15" t="s">
         <v>17</v>
       </c>
-      <c r="C22" s="16"/>
+      <c r="C22" s="15"/>
       <c r="D22" s="4" t="s">
         <v>19</v>
       </c>
@@ -1664,15 +1677,6 @@
     </row>
   </sheetData>
   <mergeCells count="19">
-    <mergeCell ref="B9:F9"/>
-    <mergeCell ref="C10:F10"/>
-    <mergeCell ref="C11:F11"/>
-    <mergeCell ref="B12:F12"/>
-    <mergeCell ref="B2:C2"/>
-    <mergeCell ref="B3:C3"/>
-    <mergeCell ref="B4:C4"/>
-    <mergeCell ref="B5:F5"/>
-    <mergeCell ref="B6:F8"/>
     <mergeCell ref="C13:D13"/>
     <mergeCell ref="C14:D14"/>
     <mergeCell ref="B22:C22"/>
@@ -1683,6 +1687,15 @@
     <mergeCell ref="B20:C21"/>
     <mergeCell ref="D20:F21"/>
     <mergeCell ref="C15:D15"/>
+    <mergeCell ref="B9:F9"/>
+    <mergeCell ref="C10:F10"/>
+    <mergeCell ref="C11:F11"/>
+    <mergeCell ref="B12:F12"/>
+    <mergeCell ref="B2:C2"/>
+    <mergeCell ref="B3:C3"/>
+    <mergeCell ref="B4:C4"/>
+    <mergeCell ref="B5:F5"/>
+    <mergeCell ref="B6:F8"/>
   </mergeCells>
   <conditionalFormatting sqref="D22">
     <cfRule type="cellIs" dxfId="11" priority="1" operator="equal">
@@ -1704,7 +1717,7 @@
   <dimension ref="B2:F26"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D24" sqref="D24:F25"/>
+      <selection activeCell="B5" sqref="B5:F5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1717,10 +1730,10 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B2" s="10" t="s">
+      <c r="B2" s="9" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="10"/>
+      <c r="C2" s="9"/>
       <c r="D2" s="4" t="s">
         <v>28</v>
       </c>
@@ -1732,10 +1745,10 @@
       </c>
     </row>
     <row r="3" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B3" s="10" t="s">
+      <c r="B3" s="9" t="s">
         <v>3</v>
       </c>
-      <c r="C3" s="10"/>
+      <c r="C3" s="9"/>
       <c r="D3" s="4" t="s">
         <v>27</v>
       </c>
@@ -1745,69 +1758,71 @@
       <c r="F3" s="5"/>
     </row>
     <row r="4" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B4" s="10" t="s">
+      <c r="B4" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="C4" s="10"/>
+      <c r="C4" s="9"/>
       <c r="D4" s="4" t="s">
         <v>26</v>
       </c>
       <c r="E4" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="F4" s="5"/>
+      <c r="F4" s="5" t="s">
+        <v>63</v>
+      </c>
     </row>
     <row r="5" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B5" s="9" t="s">
+      <c r="B5" s="10" t="s">
         <v>4</v>
       </c>
-      <c r="C5" s="9"/>
-      <c r="D5" s="9"/>
-      <c r="E5" s="9"/>
-      <c r="F5" s="9"/>
+      <c r="C5" s="10"/>
+      <c r="D5" s="10"/>
+      <c r="E5" s="10"/>
+      <c r="F5" s="10"/>
     </row>
     <row r="6" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B6" s="20" t="s">
+      <c r="B6" s="13" t="s">
         <v>46</v>
       </c>
-      <c r="C6" s="20"/>
-      <c r="D6" s="20"/>
-      <c r="E6" s="20"/>
-      <c r="F6" s="20"/>
+      <c r="C6" s="13"/>
+      <c r="D6" s="13"/>
+      <c r="E6" s="13"/>
+      <c r="F6" s="13"/>
     </row>
     <row r="7" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B7" s="20"/>
-      <c r="C7" s="20"/>
-      <c r="D7" s="20"/>
-      <c r="E7" s="20"/>
-      <c r="F7" s="20"/>
+      <c r="B7" s="13"/>
+      <c r="C7" s="13"/>
+      <c r="D7" s="13"/>
+      <c r="E7" s="13"/>
+      <c r="F7" s="13"/>
     </row>
     <row r="8" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B8" s="20"/>
-      <c r="C8" s="20"/>
-      <c r="D8" s="20"/>
-      <c r="E8" s="20"/>
-      <c r="F8" s="20"/>
+      <c r="B8" s="13"/>
+      <c r="C8" s="13"/>
+      <c r="D8" s="13"/>
+      <c r="E8" s="13"/>
+      <c r="F8" s="13"/>
     </row>
     <row r="9" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B9" s="9" t="s">
+      <c r="B9" s="10" t="s">
         <v>5</v>
       </c>
-      <c r="C9" s="9"/>
-      <c r="D9" s="9"/>
-      <c r="E9" s="9"/>
-      <c r="F9" s="9"/>
+      <c r="C9" s="10"/>
+      <c r="D9" s="10"/>
+      <c r="E9" s="10"/>
+      <c r="F9" s="10"/>
     </row>
     <row r="10" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B10" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="C10" s="10" t="s">
+      <c r="C10" s="9" t="s">
         <v>7</v>
       </c>
-      <c r="D10" s="10"/>
-      <c r="E10" s="10"/>
-      <c r="F10" s="10"/>
+      <c r="D10" s="9"/>
+      <c r="E10" s="9"/>
+      <c r="F10" s="9"/>
     </row>
     <row r="11" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B11" s="6">
@@ -1843,22 +1858,22 @@
       <c r="F13" s="12"/>
     </row>
     <row r="14" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B14" s="9" t="s">
+      <c r="B14" s="10" t="s">
         <v>10</v>
       </c>
-      <c r="C14" s="9"/>
-      <c r="D14" s="9"/>
-      <c r="E14" s="9"/>
-      <c r="F14" s="9"/>
+      <c r="C14" s="10"/>
+      <c r="D14" s="10"/>
+      <c r="E14" s="10"/>
+      <c r="F14" s="10"/>
     </row>
     <row r="15" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B15" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="C15" s="18" t="s">
+      <c r="C15" s="17" t="s">
         <v>11</v>
       </c>
-      <c r="D15" s="18"/>
+      <c r="D15" s="17"/>
       <c r="E15" s="2" t="s">
         <v>8</v>
       </c>
@@ -1919,68 +1934,68 @@
       </c>
     </row>
     <row r="20" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B20" s="19" t="s">
+      <c r="B20" s="18" t="s">
         <v>14</v>
       </c>
-      <c r="C20" s="19"/>
-      <c r="D20" s="19"/>
-      <c r="E20" s="19"/>
-      <c r="F20" s="19"/>
+      <c r="C20" s="18"/>
+      <c r="D20" s="18"/>
+      <c r="E20" s="18"/>
+      <c r="F20" s="18"/>
     </row>
     <row r="21" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B21" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="C21" s="10" t="s">
+      <c r="C21" s="9" t="s">
         <v>7</v>
       </c>
-      <c r="D21" s="10"/>
-      <c r="E21" s="10"/>
-      <c r="F21" s="10"/>
+      <c r="D21" s="9"/>
+      <c r="E21" s="9"/>
+      <c r="F21" s="9"/>
     </row>
     <row r="22" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B22" s="6">
         <v>1</v>
       </c>
-      <c r="C22" s="13" t="s">
+      <c r="C22" s="19" t="s">
         <v>51</v>
       </c>
-      <c r="D22" s="14"/>
-      <c r="E22" s="14"/>
-      <c r="F22" s="14"/>
+      <c r="D22" s="20"/>
+      <c r="E22" s="20"/>
+      <c r="F22" s="20"/>
     </row>
     <row r="23" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B23" s="9" t="s">
+      <c r="B23" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="C23" s="9"/>
-      <c r="D23" s="9"/>
-      <c r="E23" s="9"/>
-      <c r="F23" s="9"/>
+      <c r="C23" s="10"/>
+      <c r="D23" s="10"/>
+      <c r="E23" s="10"/>
+      <c r="F23" s="10"/>
     </row>
     <row r="24" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B24" s="17" t="s">
+      <c r="B24" s="16" t="s">
         <v>13</v>
       </c>
-      <c r="C24" s="17"/>
-      <c r="D24" s="15" t="s">
+      <c r="C24" s="16"/>
+      <c r="D24" s="14" t="s">
         <v>37</v>
       </c>
-      <c r="E24" s="15"/>
-      <c r="F24" s="15"/>
+      <c r="E24" s="14"/>
+      <c r="F24" s="14"/>
     </row>
     <row r="25" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B25" s="17"/>
-      <c r="C25" s="17"/>
-      <c r="D25" s="15"/>
-      <c r="E25" s="15"/>
-      <c r="F25" s="15"/>
+      <c r="B25" s="16"/>
+      <c r="C25" s="16"/>
+      <c r="D25" s="14"/>
+      <c r="E25" s="14"/>
+      <c r="F25" s="14"/>
     </row>
     <row r="26" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B26" s="16" t="s">
+      <c r="B26" s="15" t="s">
         <v>17</v>
       </c>
-      <c r="C26" s="16"/>
+      <c r="C26" s="15"/>
       <c r="D26" s="4" t="s">
         <v>19</v>
       </c>
@@ -1991,21 +2006,6 @@
     </row>
   </sheetData>
   <mergeCells count="23">
-    <mergeCell ref="C13:F13"/>
-    <mergeCell ref="B9:F9"/>
-    <mergeCell ref="B2:C2"/>
-    <mergeCell ref="B3:C3"/>
-    <mergeCell ref="B4:C4"/>
-    <mergeCell ref="B5:F5"/>
-    <mergeCell ref="B6:F8"/>
-    <mergeCell ref="C17:D17"/>
-    <mergeCell ref="C21:F21"/>
-    <mergeCell ref="C22:F22"/>
-    <mergeCell ref="B23:F23"/>
-    <mergeCell ref="B24:C25"/>
-    <mergeCell ref="D24:F25"/>
-    <mergeCell ref="C10:F10"/>
-    <mergeCell ref="C11:F11"/>
     <mergeCell ref="B14:F14"/>
     <mergeCell ref="C15:D15"/>
     <mergeCell ref="C16:D16"/>
@@ -2014,6 +2014,21 @@
     <mergeCell ref="C18:D18"/>
     <mergeCell ref="C19:D19"/>
     <mergeCell ref="B20:F20"/>
+    <mergeCell ref="C17:D17"/>
+    <mergeCell ref="C21:F21"/>
+    <mergeCell ref="C22:F22"/>
+    <mergeCell ref="B23:F23"/>
+    <mergeCell ref="B24:C25"/>
+    <mergeCell ref="D24:F25"/>
+    <mergeCell ref="C13:F13"/>
+    <mergeCell ref="B9:F9"/>
+    <mergeCell ref="B2:C2"/>
+    <mergeCell ref="B3:C3"/>
+    <mergeCell ref="B4:C4"/>
+    <mergeCell ref="B5:F5"/>
+    <mergeCell ref="B6:F8"/>
+    <mergeCell ref="C10:F10"/>
+    <mergeCell ref="C11:F11"/>
   </mergeCells>
   <conditionalFormatting sqref="D26">
     <cfRule type="cellIs" dxfId="8" priority="1" operator="equal">
@@ -2035,7 +2050,7 @@
   <dimension ref="B2:F26"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C22" sqref="C22:F22"/>
+      <selection activeCell="B5" sqref="B5:F5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2048,10 +2063,10 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B2" s="10" t="s">
+      <c r="B2" s="9" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="10"/>
+      <c r="C2" s="9"/>
       <c r="D2" s="4" t="s">
         <v>28</v>
       </c>
@@ -2063,10 +2078,10 @@
       </c>
     </row>
     <row r="3" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B3" s="10" t="s">
+      <c r="B3" s="9" t="s">
         <v>3</v>
       </c>
-      <c r="C3" s="10"/>
+      <c r="C3" s="9"/>
       <c r="D3" s="4" t="s">
         <v>27</v>
       </c>
@@ -2076,69 +2091,71 @@
       <c r="F3" s="5"/>
     </row>
     <row r="4" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B4" s="10" t="s">
+      <c r="B4" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="C4" s="10"/>
+      <c r="C4" s="9"/>
       <c r="D4" s="4" t="s">
         <v>26</v>
       </c>
       <c r="E4" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="F4" s="5"/>
+      <c r="F4" s="5" t="s">
+        <v>63</v>
+      </c>
     </row>
     <row r="5" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B5" s="9" t="s">
+      <c r="B5" s="10" t="s">
         <v>4</v>
       </c>
-      <c r="C5" s="9"/>
-      <c r="D5" s="9"/>
-      <c r="E5" s="9"/>
-      <c r="F5" s="9"/>
+      <c r="C5" s="10"/>
+      <c r="D5" s="10"/>
+      <c r="E5" s="10"/>
+      <c r="F5" s="10"/>
     </row>
     <row r="6" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B6" s="20" t="s">
+      <c r="B6" s="13" t="s">
         <v>53</v>
       </c>
-      <c r="C6" s="20"/>
-      <c r="D6" s="20"/>
-      <c r="E6" s="20"/>
-      <c r="F6" s="20"/>
+      <c r="C6" s="13"/>
+      <c r="D6" s="13"/>
+      <c r="E6" s="13"/>
+      <c r="F6" s="13"/>
     </row>
     <row r="7" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B7" s="20"/>
-      <c r="C7" s="20"/>
-      <c r="D7" s="20"/>
-      <c r="E7" s="20"/>
-      <c r="F7" s="20"/>
+      <c r="B7" s="13"/>
+      <c r="C7" s="13"/>
+      <c r="D7" s="13"/>
+      <c r="E7" s="13"/>
+      <c r="F7" s="13"/>
     </row>
     <row r="8" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B8" s="20"/>
-      <c r="C8" s="20"/>
-      <c r="D8" s="20"/>
-      <c r="E8" s="20"/>
-      <c r="F8" s="20"/>
+      <c r="B8" s="13"/>
+      <c r="C8" s="13"/>
+      <c r="D8" s="13"/>
+      <c r="E8" s="13"/>
+      <c r="F8" s="13"/>
     </row>
     <row r="9" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B9" s="9" t="s">
+      <c r="B9" s="10" t="s">
         <v>5</v>
       </c>
-      <c r="C9" s="9"/>
-      <c r="D9" s="9"/>
-      <c r="E9" s="9"/>
-      <c r="F9" s="9"/>
+      <c r="C9" s="10"/>
+      <c r="D9" s="10"/>
+      <c r="E9" s="10"/>
+      <c r="F9" s="10"/>
     </row>
     <row r="10" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B10" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="C10" s="10" t="s">
+      <c r="C10" s="9" t="s">
         <v>7</v>
       </c>
-      <c r="D10" s="10"/>
-      <c r="E10" s="10"/>
-      <c r="F10" s="10"/>
+      <c r="D10" s="9"/>
+      <c r="E10" s="9"/>
+      <c r="F10" s="9"/>
     </row>
     <row r="11" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B11" s="6">
@@ -2174,22 +2191,22 @@
       <c r="F13" s="12"/>
     </row>
     <row r="14" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B14" s="9" t="s">
+      <c r="B14" s="10" t="s">
         <v>10</v>
       </c>
-      <c r="C14" s="9"/>
-      <c r="D14" s="9"/>
-      <c r="E14" s="9"/>
-      <c r="F14" s="9"/>
+      <c r="C14" s="10"/>
+      <c r="D14" s="10"/>
+      <c r="E14" s="10"/>
+      <c r="F14" s="10"/>
     </row>
     <row r="15" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B15" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="C15" s="18" t="s">
+      <c r="C15" s="17" t="s">
         <v>11</v>
       </c>
-      <c r="D15" s="18"/>
+      <c r="D15" s="17"/>
       <c r="E15" s="2" t="s">
         <v>8</v>
       </c>
@@ -2250,68 +2267,68 @@
       </c>
     </row>
     <row r="20" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B20" s="19" t="s">
+      <c r="B20" s="18" t="s">
         <v>14</v>
       </c>
-      <c r="C20" s="19"/>
-      <c r="D20" s="19"/>
-      <c r="E20" s="19"/>
-      <c r="F20" s="19"/>
+      <c r="C20" s="18"/>
+      <c r="D20" s="18"/>
+      <c r="E20" s="18"/>
+      <c r="F20" s="18"/>
     </row>
     <row r="21" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B21" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="C21" s="10" t="s">
+      <c r="C21" s="9" t="s">
         <v>7</v>
       </c>
-      <c r="D21" s="10"/>
-      <c r="E21" s="10"/>
-      <c r="F21" s="10"/>
+      <c r="D21" s="9"/>
+      <c r="E21" s="9"/>
+      <c r="F21" s="9"/>
     </row>
     <row r="22" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B22" s="6">
         <v>1</v>
       </c>
-      <c r="C22" s="13" t="s">
+      <c r="C22" s="19" t="s">
         <v>56</v>
       </c>
-      <c r="D22" s="14"/>
-      <c r="E22" s="14"/>
-      <c r="F22" s="14"/>
+      <c r="D22" s="20"/>
+      <c r="E22" s="20"/>
+      <c r="F22" s="20"/>
     </row>
     <row r="23" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B23" s="9" t="s">
+      <c r="B23" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="C23" s="9"/>
-      <c r="D23" s="9"/>
-      <c r="E23" s="9"/>
-      <c r="F23" s="9"/>
+      <c r="C23" s="10"/>
+      <c r="D23" s="10"/>
+      <c r="E23" s="10"/>
+      <c r="F23" s="10"/>
     </row>
     <row r="24" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B24" s="17" t="s">
+      <c r="B24" s="16" t="s">
         <v>13</v>
       </c>
-      <c r="C24" s="17"/>
-      <c r="D24" s="15" t="s">
+      <c r="C24" s="16"/>
+      <c r="D24" s="14" t="s">
         <v>37</v>
       </c>
-      <c r="E24" s="15"/>
-      <c r="F24" s="15"/>
+      <c r="E24" s="14"/>
+      <c r="F24" s="14"/>
     </row>
     <row r="25" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B25" s="17"/>
-      <c r="C25" s="17"/>
-      <c r="D25" s="15"/>
-      <c r="E25" s="15"/>
-      <c r="F25" s="15"/>
+      <c r="B25" s="16"/>
+      <c r="C25" s="16"/>
+      <c r="D25" s="14"/>
+      <c r="E25" s="14"/>
+      <c r="F25" s="14"/>
     </row>
     <row r="26" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B26" s="16" t="s">
+      <c r="B26" s="15" t="s">
         <v>17</v>
       </c>
-      <c r="C26" s="16"/>
+      <c r="C26" s="15"/>
       <c r="D26" s="4" t="s">
         <v>19</v>
       </c>
@@ -2322,16 +2339,12 @@
     </row>
   </sheetData>
   <mergeCells count="23">
-    <mergeCell ref="C22:F22"/>
-    <mergeCell ref="B23:F23"/>
-    <mergeCell ref="B24:C25"/>
-    <mergeCell ref="D24:F25"/>
-    <mergeCell ref="B26:C26"/>
-    <mergeCell ref="C16:D16"/>
-    <mergeCell ref="C17:D17"/>
-    <mergeCell ref="C18:D18"/>
-    <mergeCell ref="C19:D19"/>
-    <mergeCell ref="B20:F20"/>
+    <mergeCell ref="B9:F9"/>
+    <mergeCell ref="B2:C2"/>
+    <mergeCell ref="B3:C3"/>
+    <mergeCell ref="B4:C4"/>
+    <mergeCell ref="B5:F5"/>
+    <mergeCell ref="B6:F8"/>
     <mergeCell ref="C21:F21"/>
     <mergeCell ref="C10:F10"/>
     <mergeCell ref="C11:F11"/>
@@ -2339,12 +2352,16 @@
     <mergeCell ref="C13:F13"/>
     <mergeCell ref="B14:F14"/>
     <mergeCell ref="C15:D15"/>
-    <mergeCell ref="B2:C2"/>
-    <mergeCell ref="B3:C3"/>
-    <mergeCell ref="B4:C4"/>
-    <mergeCell ref="B5:F5"/>
-    <mergeCell ref="B6:F8"/>
-    <mergeCell ref="B9:F9"/>
+    <mergeCell ref="C16:D16"/>
+    <mergeCell ref="C17:D17"/>
+    <mergeCell ref="C18:D18"/>
+    <mergeCell ref="C19:D19"/>
+    <mergeCell ref="B20:F20"/>
+    <mergeCell ref="C22:F22"/>
+    <mergeCell ref="B23:F23"/>
+    <mergeCell ref="B24:C25"/>
+    <mergeCell ref="D24:F25"/>
+    <mergeCell ref="B26:C26"/>
   </mergeCells>
   <conditionalFormatting sqref="D26">
     <cfRule type="cellIs" dxfId="5" priority="1" operator="equal">
@@ -2366,7 +2383,7 @@
   <dimension ref="B2:F26"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D29" sqref="D29"/>
+      <selection activeCell="B5" sqref="B5:F5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2379,10 +2396,10 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B2" s="10" t="s">
+      <c r="B2" s="9" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="10"/>
+      <c r="C2" s="9"/>
       <c r="D2" s="4" t="s">
         <v>28</v>
       </c>
@@ -2394,10 +2411,10 @@
       </c>
     </row>
     <row r="3" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B3" s="10" t="s">
+      <c r="B3" s="9" t="s">
         <v>3</v>
       </c>
-      <c r="C3" s="10"/>
+      <c r="C3" s="9"/>
       <c r="D3" s="4" t="s">
         <v>27</v>
       </c>
@@ -2407,69 +2424,71 @@
       <c r="F3" s="5"/>
     </row>
     <row r="4" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B4" s="10" t="s">
+      <c r="B4" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="C4" s="10"/>
+      <c r="C4" s="9"/>
       <c r="D4" s="4" t="s">
         <v>26</v>
       </c>
       <c r="E4" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="F4" s="5"/>
+      <c r="F4" s="5" t="s">
+        <v>63</v>
+      </c>
     </row>
     <row r="5" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B5" s="9" t="s">
+      <c r="B5" s="10" t="s">
         <v>4</v>
       </c>
-      <c r="C5" s="9"/>
-      <c r="D5" s="9"/>
-      <c r="E5" s="9"/>
-      <c r="F5" s="9"/>
+      <c r="C5" s="10"/>
+      <c r="D5" s="10"/>
+      <c r="E5" s="10"/>
+      <c r="F5" s="10"/>
     </row>
     <row r="6" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B6" s="20" t="s">
+      <c r="B6" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="C6" s="20"/>
-      <c r="D6" s="20"/>
-      <c r="E6" s="20"/>
-      <c r="F6" s="20"/>
+      <c r="C6" s="13"/>
+      <c r="D6" s="13"/>
+      <c r="E6" s="13"/>
+      <c r="F6" s="13"/>
     </row>
     <row r="7" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B7" s="20"/>
-      <c r="C7" s="20"/>
-      <c r="D7" s="20"/>
-      <c r="E7" s="20"/>
-      <c r="F7" s="20"/>
+      <c r="B7" s="13"/>
+      <c r="C7" s="13"/>
+      <c r="D7" s="13"/>
+      <c r="E7" s="13"/>
+      <c r="F7" s="13"/>
     </row>
     <row r="8" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B8" s="20"/>
-      <c r="C8" s="20"/>
-      <c r="D8" s="20"/>
-      <c r="E8" s="20"/>
-      <c r="F8" s="20"/>
+      <c r="B8" s="13"/>
+      <c r="C8" s="13"/>
+      <c r="D8" s="13"/>
+      <c r="E8" s="13"/>
+      <c r="F8" s="13"/>
     </row>
     <row r="9" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B9" s="9" t="s">
+      <c r="B9" s="10" t="s">
         <v>5</v>
       </c>
-      <c r="C9" s="9"/>
-      <c r="D9" s="9"/>
-      <c r="E9" s="9"/>
-      <c r="F9" s="9"/>
+      <c r="C9" s="10"/>
+      <c r="D9" s="10"/>
+      <c r="E9" s="10"/>
+      <c r="F9" s="10"/>
     </row>
     <row r="10" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B10" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="C10" s="10" t="s">
+      <c r="C10" s="9" t="s">
         <v>7</v>
       </c>
-      <c r="D10" s="10"/>
-      <c r="E10" s="10"/>
-      <c r="F10" s="10"/>
+      <c r="D10" s="9"/>
+      <c r="E10" s="9"/>
+      <c r="F10" s="9"/>
     </row>
     <row r="11" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B11" s="6">
@@ -2505,22 +2524,22 @@
       <c r="F13" s="12"/>
     </row>
     <row r="14" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B14" s="9" t="s">
+      <c r="B14" s="10" t="s">
         <v>10</v>
       </c>
-      <c r="C14" s="9"/>
-      <c r="D14" s="9"/>
-      <c r="E14" s="9"/>
-      <c r="F14" s="9"/>
+      <c r="C14" s="10"/>
+      <c r="D14" s="10"/>
+      <c r="E14" s="10"/>
+      <c r="F14" s="10"/>
     </row>
     <row r="15" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B15" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="C15" s="18" t="s">
+      <c r="C15" s="17" t="s">
         <v>11</v>
       </c>
-      <c r="D15" s="18"/>
+      <c r="D15" s="17"/>
       <c r="E15" s="2" t="s">
         <v>8</v>
       </c>
@@ -2581,68 +2600,68 @@
       </c>
     </row>
     <row r="20" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B20" s="19" t="s">
+      <c r="B20" s="18" t="s">
         <v>14</v>
       </c>
-      <c r="C20" s="19"/>
-      <c r="D20" s="19"/>
-      <c r="E20" s="19"/>
-      <c r="F20" s="19"/>
+      <c r="C20" s="18"/>
+      <c r="D20" s="18"/>
+      <c r="E20" s="18"/>
+      <c r="F20" s="18"/>
     </row>
     <row r="21" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B21" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="C21" s="10" t="s">
+      <c r="C21" s="9" t="s">
         <v>7</v>
       </c>
-      <c r="D21" s="10"/>
-      <c r="E21" s="10"/>
-      <c r="F21" s="10"/>
+      <c r="D21" s="9"/>
+      <c r="E21" s="9"/>
+      <c r="F21" s="9"/>
     </row>
     <row r="22" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B22" s="6">
         <v>1</v>
       </c>
-      <c r="C22" s="13" t="s">
+      <c r="C22" s="19" t="s">
         <v>62</v>
       </c>
-      <c r="D22" s="14"/>
-      <c r="E22" s="14"/>
-      <c r="F22" s="14"/>
+      <c r="D22" s="20"/>
+      <c r="E22" s="20"/>
+      <c r="F22" s="20"/>
     </row>
     <row r="23" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B23" s="9" t="s">
+      <c r="B23" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="C23" s="9"/>
-      <c r="D23" s="9"/>
-      <c r="E23" s="9"/>
-      <c r="F23" s="9"/>
+      <c r="C23" s="10"/>
+      <c r="D23" s="10"/>
+      <c r="E23" s="10"/>
+      <c r="F23" s="10"/>
     </row>
     <row r="24" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B24" s="17" t="s">
+      <c r="B24" s="16" t="s">
         <v>13</v>
       </c>
-      <c r="C24" s="17"/>
-      <c r="D24" s="15" t="s">
+      <c r="C24" s="16"/>
+      <c r="D24" s="14" t="s">
         <v>37</v>
       </c>
-      <c r="E24" s="15"/>
-      <c r="F24" s="15"/>
+      <c r="E24" s="14"/>
+      <c r="F24" s="14"/>
     </row>
     <row r="25" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B25" s="17"/>
-      <c r="C25" s="17"/>
-      <c r="D25" s="15"/>
-      <c r="E25" s="15"/>
-      <c r="F25" s="15"/>
+      <c r="B25" s="16"/>
+      <c r="C25" s="16"/>
+      <c r="D25" s="14"/>
+      <c r="E25" s="14"/>
+      <c r="F25" s="14"/>
     </row>
     <row r="26" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B26" s="16" t="s">
+      <c r="B26" s="15" t="s">
         <v>17</v>
       </c>
-      <c r="C26" s="16"/>
+      <c r="C26" s="15"/>
       <c r="D26" s="4" t="s">
         <v>19</v>
       </c>
@@ -2653,16 +2672,12 @@
     </row>
   </sheetData>
   <mergeCells count="23">
-    <mergeCell ref="C22:F22"/>
-    <mergeCell ref="B23:F23"/>
-    <mergeCell ref="B24:C25"/>
-    <mergeCell ref="D24:F25"/>
-    <mergeCell ref="B26:C26"/>
-    <mergeCell ref="C16:D16"/>
-    <mergeCell ref="C17:D17"/>
-    <mergeCell ref="C18:D18"/>
-    <mergeCell ref="C19:D19"/>
-    <mergeCell ref="B20:F20"/>
+    <mergeCell ref="B9:F9"/>
+    <mergeCell ref="B2:C2"/>
+    <mergeCell ref="B3:C3"/>
+    <mergeCell ref="B4:C4"/>
+    <mergeCell ref="B5:F5"/>
+    <mergeCell ref="B6:F8"/>
     <mergeCell ref="C21:F21"/>
     <mergeCell ref="C10:F10"/>
     <mergeCell ref="C11:F11"/>
@@ -2670,12 +2685,16 @@
     <mergeCell ref="C13:F13"/>
     <mergeCell ref="B14:F14"/>
     <mergeCell ref="C15:D15"/>
-    <mergeCell ref="B2:C2"/>
-    <mergeCell ref="B3:C3"/>
-    <mergeCell ref="B4:C4"/>
-    <mergeCell ref="B5:F5"/>
-    <mergeCell ref="B6:F8"/>
-    <mergeCell ref="B9:F9"/>
+    <mergeCell ref="C16:D16"/>
+    <mergeCell ref="C17:D17"/>
+    <mergeCell ref="C18:D18"/>
+    <mergeCell ref="C19:D19"/>
+    <mergeCell ref="B20:F20"/>
+    <mergeCell ref="C22:F22"/>
+    <mergeCell ref="B23:F23"/>
+    <mergeCell ref="B24:C25"/>
+    <mergeCell ref="D24:F25"/>
+    <mergeCell ref="B26:C26"/>
   </mergeCells>
   <conditionalFormatting sqref="D26">
     <cfRule type="cellIs" dxfId="2" priority="1" operator="equal">
